--- a/docs/테스트 문서/동시성 기술 선택 근거 시나리오 테스트(진행 중)/Concurrency_Performance_Scripts/PerformanceAnalysis_Scripts/results/reports/IF_ELSE/Server/IF_ELSE_stats_nano.xlsx
+++ b/docs/테스트 문서/동시성 기술 선택 근거 시나리오 테스트(진행 중)/Concurrency_Performance_Scripts/PerformanceAnalysis_Scripts/results/reports/IF_ELSE/Server/IF_ELSE_stats_nano.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\devSpace\Tools\ApacheJmeter\WorkFiles\chatservice\analyze\Concurrency_Performance_Scripts\PerformanceAnalysis_Scripts\results\reports\IF_ELSE\Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\devSpace\Tools\ApacheJmeter\WorkFiles\chatservice\analyze\Concurrency_Performance_Scripts\PerformanceAnalysis_Scripts\02_Performance_Analysis_Scripts\performance_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5349469-7B1F-4BB3-9629-0E66594770BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D15D31-AC76-4F37-85B4-958487D89182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4590" windowWidth="28800" windowHeight="8460" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="1590" windowWidth="28800" windowHeight="13605" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall_Summary" sheetId="1" r:id="rId1"/>
@@ -1206,9 +1206,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1278,6 +1285,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1388,12 +1401,12 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1507,7 +1520,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2226,20 +2239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T80" sqref="T80"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="15" max="15" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -8819,13 +8821,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.75" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -99869,14 +99864,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
